--- a/diary/2019-10-09(L).xlsx
+++ b/diary/2019-10-09(L).xlsx
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>Costco 牛奶 400ml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>練球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>滷味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -563,12 +563,12 @@
         <v>96.699999999999989</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
         <v>5.0999999999999996</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>23.9</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>46</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>46</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>23</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
